--- a/System Flow Testing/Flujo Testing.xlsx
+++ b/System Flow Testing/Flujo Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anyego/Desktop/MOVU/MOVU-Docs/System Flow Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A5D3F-7CA1-884D-B2BD-0E674455FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500CA7E8-5BD4-894D-9B2A-9B9D885A2A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2889,7 +2889,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3452A832-79FA-9C4F-801F-AE3062EF4214}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2914,20 +2914,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
@@ -2936,20 +2922,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7313,12 +7285,12 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="J8:J20">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J20">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8075,12 +8047,12 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J16">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J16">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8793,22 +8765,22 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>L10="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>L10="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/System Flow Testing/Flujo Testing.xlsx
+++ b/System Flow Testing/Flujo Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anyego/Desktop/MOVU/MOVU-Docs/System Flow Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500CA7E8-5BD4-894D-9B2A-9B9D885A2A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2E52AE-EFC4-3346-9BED-393A00AFBBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="433">
   <si>
     <t>NDS Unit Testing Status</t>
   </si>
@@ -1237,18 +1237,6 @@
     <t>TS_CTR_591</t>
   </si>
   <si>
-    <t>10,000-15,000</t>
-  </si>
-  <si>
-    <t>Ingreso minimo de 5,000</t>
-  </si>
-  <si>
-    <t>Happy weekend</t>
-  </si>
-  <si>
-    <t>Karina Puebla</t>
-  </si>
-  <si>
     <t>TS_SMG_051</t>
   </si>
   <si>
@@ -1320,6 +1308,54 @@
   </si>
   <si>
     <t>TS_AMG_291</t>
+  </si>
+  <si>
+    <t>Message Error: Favor de escribir su contraseña, la contraseña debe de tener al menos 8 caracteres</t>
+  </si>
+  <si>
+    <t>Check that the superadmin information is stored in firebase.</t>
+  </si>
+  <si>
+    <t>Uid of user can be extracted</t>
+  </si>
+  <si>
+    <t>1. Registration process validated
+2. Firebase token is generated</t>
+  </si>
+  <si>
+    <t>Fields must be required</t>
+  </si>
+  <si>
+    <t>1. Don't complete one field in the registration page
+2. Click on register button</t>
+  </si>
+  <si>
+    <t>Message Error: Completa este campo</t>
+  </si>
+  <si>
+    <t>View of table with all the automotive groups linked with db</t>
+  </si>
+  <si>
+    <t>1. Login as SuperAdmin
+2. Open AutomotiveGroups tab
+3. Table linked with db created</t>
+  </si>
+  <si>
+    <t>Table conection</t>
+  </si>
+  <si>
+    <t>Table with all automotive groups shown</t>
+  </si>
+  <si>
+    <t>Fields with car information stored correctly in db</t>
+  </si>
+  <si>
+    <t>1. Complete all corresponding fields
+2. Press submit button. 
+3. Send information to db</t>
+  </si>
+  <si>
+    <t>Mesage with conformation.</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2364,12 +2400,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2605,163 +2680,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2813,15 +2732,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="25" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,27 +2793,190 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3452A832-79FA-9C4F-801F-AE3062EF4214}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3291,33 +3364,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
@@ -3337,10 +3410,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="125" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -3352,8 +3425,8 @@
       <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="6" t="s">
         <v>173</v>
       </c>
@@ -3363,8 +3436,8 @@
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="6" t="s">
         <v>175</v>
       </c>
@@ -3374,8 +3447,8 @@
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="6" t="s">
         <v>177</v>
       </c>
@@ -3385,8 +3458,8 @@
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="6" t="s">
         <v>179</v>
       </c>
@@ -3396,8 +3469,8 @@
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="40" t="s">
         <v>181</v>
       </c>
@@ -3407,10 +3480,10 @@
       <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="125" t="s">
         <v>166</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -3422,8 +3495,8 @@
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="7" t="s">
         <v>185</v>
       </c>
@@ -3433,8 +3506,8 @@
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="40" t="s">
         <v>187</v>
       </c>
@@ -3444,10 +3517,10 @@
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="125" t="s">
         <v>190</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -3459,8 +3532,8 @@
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="40" t="s">
         <v>193</v>
       </c>
@@ -3470,10 +3543,10 @@
       <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="125" t="s">
         <v>196</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -3485,8 +3558,8 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="7" t="s">
         <v>199</v>
       </c>
@@ -3496,8 +3569,8 @@
       <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="7" t="s">
         <v>201</v>
       </c>
@@ -3507,8 +3580,8 @@
       <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="6" t="s">
         <v>203</v>
       </c>
@@ -3518,8 +3591,8 @@
       <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="40" t="s">
         <v>205</v>
       </c>
@@ -3586,13 +3659,13 @@
       <c r="C27" s="51"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
@@ -3627,10 +3700,10 @@
       <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="133" t="s">
         <v>224</v>
       </c>
       <c r="C31" s="55" t="s">
@@ -3642,8 +3715,8 @@
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="7" t="s">
         <v>227</v>
       </c>
@@ -3653,8 +3726,8 @@
       <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="6" t="s">
         <v>229</v>
       </c>
@@ -3664,8 +3737,8 @@
       <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="40" t="s">
         <v>231</v>
       </c>
@@ -3675,10 +3748,10 @@
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="125" t="s">
         <v>234</v>
       </c>
       <c r="C35" s="37" t="s">
@@ -3690,8 +3763,8 @@
       <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="86"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="6" t="s">
         <v>237</v>
       </c>
@@ -3701,8 +3774,8 @@
       <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="40" t="s">
         <v>239</v>
       </c>
@@ -3712,10 +3785,10 @@
       <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="125" t="s">
         <v>242</v>
       </c>
       <c r="C38" s="37" t="s">
@@ -3727,8 +3800,8 @@
       <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86"/>
-      <c r="B39" s="89"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="6" t="s">
         <v>245</v>
       </c>
@@ -3738,8 +3811,8 @@
       <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="90"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="40" t="s">
         <v>247</v>
       </c>
@@ -3759,13 +3832,13 @@
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57" t="s">
@@ -3785,10 +3858,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="122" t="s">
         <v>250</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="125" t="s">
         <v>251</v>
       </c>
       <c r="C45" s="37" t="s">
@@ -3800,8 +3873,8 @@
       <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="90"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="40" t="s">
         <v>254</v>
       </c>
@@ -3811,10 +3884,10 @@
       <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="125" t="s">
         <v>257</v>
       </c>
       <c r="C47" s="37" t="s">
@@ -3826,8 +3899,8 @@
       <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="86"/>
-      <c r="B48" s="89"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="6" t="s">
         <v>260</v>
       </c>
@@ -3837,8 +3910,8 @@
       <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="87"/>
-      <c r="B49" s="90"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="40" t="s">
         <v>262</v>
       </c>
@@ -3848,10 +3921,10 @@
       <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="125" t="s">
         <v>265</v>
       </c>
       <c r="C50" s="37" t="s">
@@ -3863,8 +3936,8 @@
       <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="90"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="40" t="s">
         <v>268</v>
       </c>
@@ -3889,10 +3962,10 @@
       <c r="E52" s="49"/>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="B53" s="88" t="s">
+      <c r="B53" s="125" t="s">
         <v>272</v>
       </c>
       <c r="C53" s="55" t="s">
@@ -3904,8 +3977,8 @@
       <c r="E53" s="42"/>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="56" t="s">
         <v>275</v>
       </c>
@@ -3915,10 +3988,10 @@
       <c r="E54" s="44"/>
     </row>
     <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="125" t="s">
         <v>278</v>
       </c>
       <c r="C55" s="55" t="s">
@@ -3930,8 +4003,8 @@
       <c r="E55" s="42"/>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="90"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="56" t="s">
         <v>281</v>
       </c>
@@ -3951,13 +4024,13 @@
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="130" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="61" t="s">
@@ -3977,10 +4050,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="125" t="s">
         <v>285</v>
       </c>
       <c r="C61" s="37" t="s">
@@ -3992,8 +4065,8 @@
       <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="87"/>
-      <c r="B62" s="90"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="40" t="s">
         <v>288</v>
       </c>
@@ -4043,13 +4116,13 @@
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="64" t="s">
@@ -4069,10 +4142,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="85" t="s">
+      <c r="A69" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="125" t="s">
         <v>299</v>
       </c>
       <c r="C69" s="37" t="s">
@@ -4084,8 +4157,8 @@
       <c r="E69" s="42"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="86"/>
-      <c r="B70" s="89"/>
+      <c r="A70" s="123"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="6" t="s">
         <v>302</v>
       </c>
@@ -4095,8 +4168,8 @@
       <c r="E70" s="43"/>
     </row>
     <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="86"/>
-      <c r="B71" s="89"/>
+      <c r="A71" s="123"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="6" t="s">
         <v>304</v>
       </c>
@@ -4106,8 +4179,8 @@
       <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="87"/>
-      <c r="B72" s="90"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="40" t="s">
         <v>306</v>
       </c>
@@ -4162,10 +4235,10 @@
       <c r="E75" s="49"/>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="122" t="s">
         <v>317</v>
       </c>
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="125" t="s">
         <v>318</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4177,8 +4250,8 @@
       <c r="E76" s="42"/>
     </row>
     <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="87"/>
-      <c r="B77" s="90"/>
+      <c r="A77" s="124"/>
+      <c r="B77" s="127"/>
       <c r="C77" s="40" t="s">
         <v>321</v>
       </c>
@@ -4198,13 +4271,13 @@
     </row>
     <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="98" t="s">
+      <c r="A80" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="B80" s="98"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="98"/>
+      <c r="B80" s="128"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
     </row>
     <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="67" t="s">
@@ -4224,10 +4297,10 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="125" t="s">
         <v>325</v>
       </c>
       <c r="C82" s="37" t="s">
@@ -4239,8 +4312,8 @@
       <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="86"/>
-      <c r="B83" s="89"/>
+      <c r="A83" s="123"/>
+      <c r="B83" s="126"/>
       <c r="C83" s="6" t="s">
         <v>328</v>
       </c>
@@ -4250,8 +4323,8 @@
       <c r="E83" s="43"/>
     </row>
     <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="86"/>
-      <c r="B84" s="89"/>
+      <c r="A84" s="123"/>
+      <c r="B84" s="126"/>
       <c r="C84" s="6" t="s">
         <v>330</v>
       </c>
@@ -4261,8 +4334,8 @@
       <c r="E84" s="43"/>
     </row>
     <row r="85" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="86"/>
-      <c r="B85" s="89"/>
+      <c r="A85" s="123"/>
+      <c r="B85" s="126"/>
       <c r="C85" s="6" t="s">
         <v>332</v>
       </c>
@@ -4272,8 +4345,8 @@
       <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="86"/>
-      <c r="B86" s="89"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="126"/>
       <c r="C86" s="6" t="s">
         <v>334</v>
       </c>
@@ -4283,8 +4356,8 @@
       <c r="E86" s="43"/>
     </row>
     <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="86"/>
-      <c r="B87" s="89"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="126"/>
       <c r="C87" s="6" t="s">
         <v>336</v>
       </c>
@@ -4294,8 +4367,8 @@
       <c r="E87" s="43"/>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="86"/>
-      <c r="B88" s="89"/>
+      <c r="A88" s="123"/>
+      <c r="B88" s="126"/>
       <c r="C88" s="6" t="s">
         <v>338</v>
       </c>
@@ -4305,8 +4378,8 @@
       <c r="E88" s="43"/>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="87"/>
-      <c r="B89" s="90"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="127"/>
       <c r="C89" s="40" t="s">
         <v>340</v>
       </c>
@@ -4331,10 +4404,10 @@
       <c r="E90" s="48"/>
     </row>
     <row r="91" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="B91" s="88" t="s">
+      <c r="B91" s="125" t="s">
         <v>347</v>
       </c>
       <c r="C91" s="37" t="s">
@@ -4346,8 +4419,8 @@
       <c r="E91" s="42"/>
     </row>
     <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="87"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="124"/>
+      <c r="B92" s="127"/>
       <c r="C92" s="40" t="s">
         <v>350</v>
       </c>
@@ -4427,13 +4500,13 @@
     </row>
     <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="99" t="s">
+      <c r="A99" s="121" t="s">
         <v>365</v>
       </c>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
+      <c r="B99" s="121"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
     </row>
     <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="70" t="s">
@@ -4468,10 +4541,10 @@
       <c r="E101" s="49"/>
     </row>
     <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="122" t="s">
         <v>367</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="125" t="s">
         <v>368</v>
       </c>
       <c r="C102" s="37" t="s">
@@ -4483,8 +4556,8 @@
       <c r="E102" s="38"/>
     </row>
     <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="86"/>
-      <c r="B103" s="89"/>
+      <c r="A103" s="123"/>
+      <c r="B103" s="126"/>
       <c r="C103" s="6" t="s">
         <v>371</v>
       </c>
@@ -4494,8 +4567,8 @@
       <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="87"/>
-      <c r="B104" s="90"/>
+      <c r="A104" s="124"/>
+      <c r="B104" s="127"/>
       <c r="C104" s="40" t="s">
         <v>373</v>
       </c>
@@ -4505,10 +4578,10 @@
       <c r="E104" s="41"/>
     </row>
     <row r="105" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="85" t="s">
+      <c r="A105" s="122" t="s">
         <v>375</v>
       </c>
-      <c r="B105" s="88" t="s">
+      <c r="B105" s="125" t="s">
         <v>376</v>
       </c>
       <c r="C105" s="37" t="s">
@@ -4520,8 +4593,8 @@
       <c r="E105" s="38"/>
     </row>
     <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="87"/>
-      <c r="B106" s="90"/>
+      <c r="A106" s="124"/>
+      <c r="B106" s="127"/>
       <c r="C106" s="40" t="s">
         <v>379</v>
       </c>
@@ -4541,13 +4614,13 @@
     </row>
     <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="100" t="s">
+      <c r="A109" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="B109" s="101"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="102"/>
+      <c r="B109" s="119"/>
+      <c r="C109" s="119"/>
+      <c r="D109" s="119"/>
+      <c r="E109" s="120"/>
     </row>
     <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="73" t="s">
@@ -4634,54 +4707,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A99:E99"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="B102:B104"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4709,38 +4782,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
@@ -4798,15 +4871,15 @@
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -4847,10 +4920,10 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="158" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -4862,8 +4935,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -4874,15 +4947,15 @@
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -4908,10 +4981,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="151" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4923,8 +4996,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="6" t="s">
         <v>111</v>
       </c>
@@ -4970,38 +5043,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -5042,10 +5115,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="165" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -5057,8 +5130,8 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
@@ -5068,10 +5141,10 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="158" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -5083,8 +5156,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
@@ -5095,15 +5168,15 @@
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -5129,10 +5202,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="158" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -5144,8 +5217,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="6" t="s">
         <v>67</v>
       </c>
@@ -5155,10 +5228,10 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="158" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -5170,8 +5243,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
@@ -5181,8 +5254,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
@@ -5192,8 +5265,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="6" t="s">
         <v>73</v>
       </c>
@@ -5203,10 +5276,10 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="158" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -5218,8 +5291,8 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="6" t="s">
         <v>77</v>
       </c>
@@ -5229,8 +5302,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="6" t="s">
         <v>78</v>
       </c>
@@ -5240,8 +5313,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="6" t="s">
         <v>79</v>
       </c>
@@ -5251,8 +5324,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="6" t="s">
         <v>80</v>
       </c>
@@ -5262,8 +5335,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
@@ -5273,10 +5346,10 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="158" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -5288,8 +5361,8 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="6" t="s">
         <v>85</v>
       </c>
@@ -5299,10 +5372,10 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="158" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -5314,8 +5387,8 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="6" t="s">
         <v>89</v>
       </c>
@@ -5325,8 +5398,8 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="6" t="s">
         <v>90</v>
       </c>
@@ -5337,6 +5410,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A17:A20"/>
@@ -5345,16 +5428,6 @@
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5383,38 +5456,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -5426,7 +5499,7 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="109" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -5440,58 +5513,58 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="165" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" s="163"/>
+      <c r="D7" s="110" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="108"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="162" t="s">
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="165" t="s">
-        <v>418</v>
-      </c>
-      <c r="E8" s="163"/>
+      <c r="D8" s="110" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8" s="108"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="162" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="165" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" s="163"/>
+      <c r="D9" s="110" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="108"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="162" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="165" t="s">
-        <v>420</v>
-      </c>
-      <c r="E10" s="163"/>
+      <c r="D10" s="110" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="108"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
@@ -5502,30 +5575,30 @@
       <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="165" t="s">
-        <v>421</v>
-      </c>
-      <c r="E11" s="163"/>
+      <c r="D11" s="110" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="108"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>422</v>
-      </c>
-      <c r="E12" s="163"/>
+      <c r="D12" s="110" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="108"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
@@ -5545,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F69C8-1ADB-E544-8E31-F7EDAF60F106}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5569,253 +5642,261 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="145" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="166" t="s">
+      <c r="F7" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="166" t="s">
+      <c r="I7" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="166" t="s">
+      <c r="J7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="166" t="s">
+      <c r="L7" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="166" t="s">
+      <c r="M7" s="111" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="114" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="I8" s="114"/>
+      <c r="J8" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="116"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+    </row>
+    <row r="9" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="116"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+    </row>
+    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="116"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+    </row>
+    <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="116"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+    </row>
+    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="114" t="s">
         <v>417</v>
       </c>
-      <c r="D8" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="172" t="s">
+      <c r="D12" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="171"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-    </row>
-    <row r="9" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="169" t="s">
+      <c r="K12" s="116"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+    </row>
+    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="114" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D9" s="170" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="172" t="s">
+      <c r="D13" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="171"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-    </row>
-    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="169" t="s">
-        <v>419</v>
-      </c>
-      <c r="D10" s="170" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="171"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-    </row>
-    <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="169" t="s">
-        <v>420</v>
-      </c>
-      <c r="D11" s="170" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="171"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-    </row>
-    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="170" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="171"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-    </row>
-    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="169" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="169" t="s">
-        <v>422</v>
-      </c>
-      <c r="D13" s="170" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="171"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30"/>
@@ -6231,12 +6312,12 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="J8:J13">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6271,38 +6352,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -6328,112 +6409,112 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="158" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="161" t="s">
-        <v>399</v>
+      <c r="D7" s="106" t="s">
+        <v>395</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="161" t="s">
-        <v>401</v>
+      <c r="D8" s="106" t="s">
+        <v>397</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="161" t="s">
-        <v>402</v>
+      <c r="D9" s="106" t="s">
+        <v>398</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="161" t="s">
-        <v>403</v>
+      <c r="D10" s="106" t="s">
+        <v>399</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="169" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="161" t="s">
-        <v>404</v>
+      <c r="D11" s="106" t="s">
+        <v>400</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="161" t="s">
-        <v>405</v>
+      <c r="D12" s="106" t="s">
+        <v>401</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="161" t="s">
-        <v>406</v>
+      <c r="D13" s="106" t="s">
+        <v>402</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="161" t="s">
-        <v>407</v>
+      <c r="D14" s="106" t="s">
+        <v>403</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -6449,8 +6530,8 @@
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="161" t="s">
-        <v>408</v>
+      <c r="D15" s="106" t="s">
+        <v>404</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -6466,8 +6547,8 @@
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="161" t="s">
-        <v>409</v>
+      <c r="D16" s="106" t="s">
+        <v>405</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -6483,8 +6564,8 @@
       <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="161" t="s">
-        <v>410</v>
+      <c r="D17" s="106" t="s">
+        <v>406</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -6500,8 +6581,8 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="161" t="s">
-        <v>411</v>
+      <c r="D18" s="106" t="s">
+        <v>407</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -6517,8 +6598,8 @@
       <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="161" t="s">
-        <v>412</v>
+      <c r="D19" s="106" t="s">
+        <v>408</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -6542,480 +6623,494 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8244D84-6570-C74F-8C41-ADB650A1355C}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="133" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="133" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="133" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="133" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="133" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="133" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="133"/>
+    <col min="1" max="1" width="18" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="81" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="129" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="B2" s="170" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>398</v>
-      </c>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133" t="s">
-        <v>395</v>
-      </c>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="160"/>
+      <c r="B6" s="105"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="136" t="s">
+      <c r="L7" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="136" t="s">
+      <c r="M7" s="84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="135" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="139" t="s">
+    <row r="8" spans="1:13" s="83" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="176" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="176" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="176" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="175"/>
+      <c r="J8" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+    </row>
+    <row r="9" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>409</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" s="175"/>
+      <c r="J9" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="89"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+    </row>
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>421</v>
+      </c>
+      <c r="I10" s="175"/>
+      <c r="J10" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="89"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="155" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="143" t="s">
+      <c r="D11" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="155" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="143" t="s">
+      <c r="H11" s="114" t="s">
+        <v>425</v>
+      </c>
+      <c r="I11" s="175"/>
+      <c r="J11" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-    </row>
-    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="139" t="s">
+      <c r="K11" s="89"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>427</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" s="114" t="s">
+        <v>429</v>
+      </c>
+      <c r="I12" s="175"/>
+      <c r="J12" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="89"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>413</v>
-      </c>
-      <c r="F9" s="139" t="s">
-        <v>414</v>
-      </c>
-      <c r="G9" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="143" t="s">
+      <c r="D13" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="141"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-    </row>
-    <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="139" t="s">
+      <c r="K13" s="89"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="87" t="s">
         <v>402</v>
       </c>
-      <c r="D10" s="140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="143" t="s">
+      <c r="D14" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-    </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="139" t="s">
+      <c r="K14" s="89"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+    </row>
+    <row r="15" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>403</v>
       </c>
-      <c r="D11" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="143" t="s">
+      <c r="D15" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-    </row>
-    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="139" t="s">
+      <c r="K15" s="89"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+    </row>
+    <row r="16" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="87" t="s">
         <v>404</v>
       </c>
-      <c r="D12" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="143" t="s">
+      <c r="D16" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-    </row>
-    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="139" t="s">
+      <c r="K16" s="89"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+    </row>
+    <row r="17" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="90" t="s">
         <v>405</v>
       </c>
-      <c r="D13" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="143" t="s">
+      <c r="D17" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-    </row>
-    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="139" t="s">
+      <c r="K17" s="89"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+    </row>
+    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="D14" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="143" t="s">
+      <c r="D18" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-    </row>
-    <row r="15" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="139" t="s">
+      <c r="K18" s="89"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+    </row>
+    <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="D15" s="140" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="143" t="s">
+      <c r="D19" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-    </row>
-    <row r="16" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="140" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="139" t="s">
+      <c r="K19" s="89"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+    </row>
+    <row r="20" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="D16" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="143" t="s">
+      <c r="D20" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-    </row>
-    <row r="17" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="140" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="D17" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-    </row>
-    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="140" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="140" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="142" t="s">
-        <v>410</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="141"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-    </row>
-    <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="140" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" s="140" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="141"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-    </row>
-    <row r="20" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="140" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="142" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-    </row>
-    <row r="21" spans="1:13" s="146" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+    </row>
+    <row r="21" spans="1:13" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
@@ -7027,7 +7122,7 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="134"/>
+      <c r="J22" s="82"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
     </row>
@@ -7041,7 +7136,7 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="134"/>
+      <c r="J23" s="82"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
     </row>
@@ -7055,7 +7150,7 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="134"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
     </row>
@@ -7069,7 +7164,7 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
-      <c r="J25" s="134"/>
+      <c r="J25" s="82"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
@@ -7083,7 +7178,7 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="134"/>
+      <c r="J26" s="82"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
@@ -7097,7 +7192,7 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
-      <c r="J27" s="134"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
@@ -7111,7 +7206,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="134"/>
+      <c r="J28" s="82"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
@@ -7125,7 +7220,7 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="134"/>
+      <c r="J29" s="82"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
@@ -7139,7 +7234,7 @@
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="134"/>
+      <c r="J30" s="82"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
@@ -7153,7 +7248,7 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="134"/>
+      <c r="J31" s="82"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
@@ -7167,7 +7262,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
-      <c r="J32" s="134"/>
+      <c r="J32" s="82"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
@@ -7181,7 +7276,7 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="134"/>
+      <c r="J33" s="82"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
@@ -7195,7 +7290,7 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="134"/>
+      <c r="J34" s="82"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
@@ -7209,7 +7304,7 @@
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="134"/>
+      <c r="J35" s="82"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
@@ -7223,7 +7318,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="134"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
@@ -7237,7 +7332,7 @@
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="134"/>
+      <c r="J37" s="82"/>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
@@ -7251,7 +7346,7 @@
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="134"/>
+      <c r="J38" s="82"/>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
@@ -7262,7 +7357,7 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
-      <c r="J39" s="134"/>
+      <c r="J39" s="82"/>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
@@ -7285,12 +7380,12 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="J8:J20">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J20">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7317,727 +7412,727 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="152" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="152" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="152" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="152" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="152" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="152" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="152" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="152" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="152"/>
-    <col min="11" max="11" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="152" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" style="152" customWidth="1"/>
-    <col min="14" max="16384" width="12.5" style="152"/>
+    <col min="1" max="1" width="18" style="97" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="97" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="97" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="97"/>
+    <col min="11" max="11" width="14.83203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" style="97" customWidth="1"/>
+    <col min="14" max="16384" width="12.5" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="151"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="153" t="s">
+      <c r="F7" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="G7" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="153" t="s">
+      <c r="H7" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="153" t="s">
+      <c r="K7" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="153" t="s">
+      <c r="L7" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="153" t="s">
+      <c r="M7" s="98" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143" t="s">
+      <c r="I8" s="91"/>
+      <c r="J8" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143" t="s">
+      <c r="I9" s="91"/>
+      <c r="J9" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143" t="s">
+      <c r="I10" s="91"/>
+      <c r="J10" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="156"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143" t="s">
+      <c r="I11" s="91"/>
+      <c r="J11" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="156"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143" t="s">
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="156"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143" t="s">
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="156"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143" t="s">
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="156"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143" t="s">
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="156"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="157"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="157"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="157"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="157"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="157"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="157"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="157"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="157"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="157"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="157"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="157"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="157"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="157"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="157"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="159"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="157"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="157"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="159"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="157"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8047,12 +8142,12 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J16">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J16">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8073,689 +8168,689 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="152" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="152" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="152" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="152" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="152" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="152" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="152" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="152" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="152"/>
-    <col min="11" max="11" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="152" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" style="152" customWidth="1"/>
-    <col min="14" max="16384" width="12.5" style="152"/>
+    <col min="1" max="1" width="18" style="97" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="97" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="97" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="97" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="97"/>
+    <col min="11" max="11" width="14.83203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" style="97" customWidth="1"/>
+    <col min="14" max="16384" width="12.5" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="151"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="153" t="s">
+      <c r="F7" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="G7" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="153" t="s">
+      <c r="H7" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="153" t="s">
+      <c r="K7" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="153" t="s">
+      <c r="L7" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="153" t="s">
+      <c r="M7" s="98" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="157"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="143" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="157"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="143" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="159"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="157"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="143" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="158"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="157"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="143" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K11" s="159"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="157"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="143" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="159"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="143" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="159"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="157"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="143" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="157"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="143" t="s">
+      <c r="A15" s="102"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="159"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="157"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="143" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="159"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="157"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="143" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="159"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="157"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="143" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="159"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="143" t="s">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="159"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="143" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="159"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="157"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="143" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="159"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="143" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="159"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="143" t="s">
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="159"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="143" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="159"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="157"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="143" t="s">
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="159"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="157"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="143" t="s">
+      <c r="A26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="159"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="143" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K27" s="159"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="143" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="159"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="157"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="143" t="s">
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="159"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="157"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="143" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="159"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="157"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="143" t="s">
+      <c r="A31" s="102"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="159"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="157"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="143" t="s">
+      <c r="A32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="157"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="143" t="s">
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="159"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="157"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="143" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K34" s="159"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="157"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="143" t="s">
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="159"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="157"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="143" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K36" s="159"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="157"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="143" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="159"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="157"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="143" t="s">
+      <c r="A38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K38" s="159"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="157"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="143" t="s">
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="159"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="143" t="s">
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="159"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="157"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="143" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="K41" s="159"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8765,22 +8860,22 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>J8="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>J8="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>L10="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>L10="In Proccess"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8825,44 +8920,44 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9461,44 +9556,44 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10097,44 +10192,44 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10733,44 +10828,44 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11369,44 +11464,44 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12005,44 +12100,44 @@
       <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
